--- a/biology/Zoologie/Hoplophryne_uluguruensis/Hoplophryne_uluguruensis.xlsx
+++ b/biology/Zoologie/Hoplophryne_uluguruensis/Hoplophryne_uluguruensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplophryne uluguruensis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplophryne uluguruensis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est de la Tanzanie. Elle se rencontre dans les monts Uluguru et dans les monts Udzungwa[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est de la Tanzanie. Elle se rencontre dans les monts Uluguru et dans les monts Udzungwa,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplophryne uluguruensis mesure entre 17 et 25 mm pour les mâles et de 19 à 21 mm pour les femelles. Son dos est noir tacheté de gris argenté. Son ventre est brun sombre tacheté d'argent essentiellement au niveau du menton et de la gorge[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplophryne uluguruensis mesure entre 17 et 25 mm pour les mâles et de 19 à 21 mm pour les femelles. Son dos est noir tacheté de gris argenté. Son ventre est brun sombre tacheté d'argent essentiellement au niveau du menton et de la gorge.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de uluguru et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour &amp; Loveridge, 1928 : A comparative study of the herpetological faunae of the Uluguru and Usambara Mountains, Tanganyika Territory with descriptions of new species. Memoirs of the Museum of Comparative Zoology, Cambridge, Massachusetts, vol. 50, no 2, p. 87-265 (texte intégral).</t>
         </is>
